--- a/Design/功能及工作量.xlsx
+++ b/Design/功能及工作量.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="227">
   <si>
     <t>策划</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -340,10 +340,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>选择出战手牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>卡牌升级弹窗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -492,10 +488,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>释放魔法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -849,6 +841,125 @@
   </si>
   <si>
     <t>9.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择出战卡组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被召唤的单位完成预备后，向最近的优先攻击目标寻径移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>根据配置表初始化以下信息
+1.战场胜负条件(消灭敌方全部部队or摧毁敌方基地)
+2.地图配置(地图/不可通行区域/双方基地位置/楼梯位置）
+3.双方初期部队配置(敌我双方初始部队位置，根据敌我设定部队左右朝向）
+4.读取战前对话事件
+5.载入双方初始圣水值
+6.载入我方出战卡组（未设定时从</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全局变量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中读取默认卡组/设定出战卡组时，为设定的出战卡组）
+7.载入敌方出战卡组
+8.从我方出战牌库中随机出4张作为初始手牌
+9.从敌方牌库中随机出4张作为初始手牌
+10.载入我方出战英雄
+11.载入敌方出战英雄</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄未被召唤，且不处于重生过程中时，点击基地支付对应的圣水值召唤英雄
+英雄召唤后固定出现在基地旁边.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位的攻击范围内有可攻击目标时，攻击该对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄死亡后需要重生，重生时间暂定为30秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣水足够支付召唤费用时，将卡牌从手牌区拖放到战场时可在拖曳目标点生成召唤单位。(若单位是步行单位，则需要做模糊匹配，使其出现在拖曳目标点对应区域的地面上）
+被召唤出的单位需要完成预备后才能行动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣水足够支付释放魔法费用时，将卡牌从手牌区拖放到战场
+在拖曳目标点进行魔法预备，预备完成后释放魔法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战前对话结束后开始圣水增长
+根据全局变量，设定基本圣水增长值（1点/秒）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>达成胜利/失败条件后，判定战斗胜负。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对话事件结束后进行奖励结算。
+若有设定战胜对话事件/战败对话事件，则在结算完毕后执行对话事件。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战前对话事件/战胜对话事件/战败对话事件。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在关卡选择界面点击，可查看关卡敌人配置和掉落信息
+消耗行动力可挑战对应普通关卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看卡牌牌面图像，卡牌描述文字，卡牌属性，升级消耗。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗金币和若干张相同卡牌提升卡牌等级，根据等级提升卡牌属性。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从牌库中选择8张不同的卡牌作为出战卡组。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -856,7 +967,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -899,6 +1010,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -920,7 +1038,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -955,46 +1073,112 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="24">
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
+        <color theme="1"/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
+        <color theme="1"/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
       </font>
@@ -1034,6 +1218,21 @@
         <name val="微软雅黑"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1182,6 +1381,30 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -1196,39 +1419,45 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:D30" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A1:D30"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="编号" dataDxfId="17"/>
-    <tableColumn id="2" name="策划工作内容" dataDxfId="16"/>
-    <tableColumn id="3" name="类型" dataDxfId="15"/>
-    <tableColumn id="4" name="责任人" dataDxfId="14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:F30" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+  <autoFilter ref="A1:F30"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="编号" dataDxfId="21"/>
+    <tableColumn id="2" name="策划工作内容" dataDxfId="20"/>
+    <tableColumn id="3" name="类型" dataDxfId="19"/>
+    <tableColumn id="6" name="描述" dataDxfId="2"/>
+    <tableColumn id="5" name="优先级" dataDxfId="3"/>
+    <tableColumn id="4" name="责任人" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="F1:I39" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="F1:I39"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="编号" dataDxfId="11"/>
-    <tableColumn id="2" name="程序工作内容" dataDxfId="10"/>
-    <tableColumn id="3" name="类型" dataDxfId="9"/>
-    <tableColumn id="4" name="责任人" dataDxfId="8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="H1:M39" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="H1:M39"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="编号" dataDxfId="15"/>
+    <tableColumn id="2" name="程序工作内容" dataDxfId="14"/>
+    <tableColumn id="3" name="类型" dataDxfId="13"/>
+    <tableColumn id="5" name="描述" dataDxfId="5"/>
+    <tableColumn id="6" name="优先级" dataDxfId="4"/>
+    <tableColumn id="4" name="责任人" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="K1:N59" totalsRowShown="0" headerRowDxfId="5" dataDxfId="2">
-  <autoFilter ref="K1:N59"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="编号" dataDxfId="0"/>
-    <tableColumn id="2" name="美术工作内容" dataDxfId="1"/>
-    <tableColumn id="3" name="类型" dataDxfId="4"/>
-    <tableColumn id="4" name="责任人" dataDxfId="3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="O1:T59" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="O1:T59"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="编号" dataDxfId="9"/>
+    <tableColumn id="2" name="美术工作内容" dataDxfId="8"/>
+    <tableColumn id="3" name="类型" dataDxfId="7"/>
+    <tableColumn id="6" name="描述" dataDxfId="0"/>
+    <tableColumn id="5" name="优先级" dataDxfId="1"/>
+    <tableColumn id="4" name="责任人" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1521,31 +1750,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N59"/>
+  <dimension ref="A1:T59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="29.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="9" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="5.125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9" style="1"/>
-    <col min="12" max="12" width="24.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="9.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="3" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="9" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="1"/>
+    <col min="11" max="11" width="69.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9" style="1"/>
+    <col min="14" max="14" width="5.125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="1"/>
+    <col min="16" max="16" width="24.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="9" style="1"/>
+    <col min="20" max="20" width="9.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
@@ -1556,34 +1787,52 @@
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1593,35 +1842,35 @@
       <c r="C2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="5">
+      <c r="H2" s="5">
         <v>1</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K2" s="5">
+      <c r="O2" s="5">
         <v>1</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="T2" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="231" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1631,26 +1880,31 @@
       <c r="C3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="2">
+      <c r="H3" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K3" s="12">
+      <c r="J3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="O3" s="12">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L3" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P3" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+    </row>
+    <row r="4" spans="1:20" ht="33" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1660,26 +1914,31 @@
       <c r="C4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="2">
+      <c r="H4" s="2">
         <v>1.2</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K4" s="12">
+      <c r="J4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="O4" s="12">
         <v>1.2</v>
       </c>
-      <c r="L4" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P4" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+    </row>
+    <row r="5" spans="1:20" ht="66" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1689,24 +1948,29 @@
       <c r="C5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="2">
+      <c r="H5" s="2">
         <v>1.3</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K5" s="12">
+      <c r="J5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="O5" s="12">
         <v>1.3</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="P5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1716,26 +1980,31 @@
       <c r="C6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="2">
+      <c r="H6" s="2">
         <v>1.4</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="M6" s="4" t="s">
+      <c r="J6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q6" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1745,26 +2014,31 @@
       <c r="C7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>1.5</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="M7" s="4" t="s">
+      <c r="J7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q7" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+    </row>
+    <row r="8" spans="1:20" ht="33" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1774,24 +2048,29 @@
       <c r="C8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="2">
+      <c r="H8" s="2">
         <v>1.6</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K8" s="12">
+      <c r="J8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="O8" s="12">
         <v>1.4</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="P8" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="M8" s="4"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1801,26 +2080,31 @@
       <c r="C9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="2">
+      <c r="H9" s="2">
         <v>1.7</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="L9" s="11" t="s">
+      <c r="J9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="P9" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="Q9" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+    </row>
+    <row r="10" spans="1:20" ht="33" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1830,55 +2114,65 @@
       <c r="C10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="2">
+      <c r="H10" s="2">
         <v>1.8</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="M10" s="4" t="s">
+      <c r="I10" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="P10" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q10" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F11" s="2">
+      <c r="H11" s="2">
         <v>1.9</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="M11" s="4" t="s">
+      <c r="J11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="P11" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q11" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+    </row>
+    <row r="12" spans="1:20" ht="33" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1888,24 +2182,29 @@
       <c r="C12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G12" s="3" t="s">
+      <c r="H12" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="M12" s="4"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="P12" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1915,26 +2214,31 @@
       <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G13" s="3" t="s">
+      <c r="H13" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="M13" s="4" t="s">
+      <c r="J13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="P13" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q13" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1944,26 +2248,28 @@
       <c r="C14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="5">
+      <c r="H14" s="5">
         <v>2</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="I14" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="L14" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="M14" s="4" t="s">
+      <c r="J14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O14" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="P14" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q14" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+    </row>
+    <row r="15" spans="1:20" ht="33" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1973,26 +2279,31 @@
       <c r="C15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="2">
+      <c r="H15" s="2">
         <v>2.1</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="I15" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="L15" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M15" s="4" t="s">
+      <c r="J15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="O15" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="P15" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q15" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2002,24 +2313,26 @@
       <c r="C16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="5">
+      <c r="H16" s="5">
         <v>3</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="I16" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="L16" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="M16" s="4"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O16" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="P16" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2029,26 +2342,31 @@
       <c r="C17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="2">
+      <c r="H17" s="2">
         <v>3.1</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="I17" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K17" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="L17" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="M17" s="4" t="s">
+      <c r="J17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="O17" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="P17" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q17" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2058,26 +2376,31 @@
       <c r="C18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="2">
+      <c r="H18" s="2">
         <v>3.2</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="L18" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="M18" s="4" t="s">
+      <c r="J18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="O18" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="P18" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q18" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2087,24 +2410,29 @@
       <c r="C19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="2">
+      <c r="H19" s="2">
         <v>3.3</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K19" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="L19" s="10" t="s">
+      <c r="I19" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="O19" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="P19" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="M19" s="4"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2114,26 +2442,28 @@
       <c r="C20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="5">
+      <c r="H20" s="5">
         <v>4</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="I20" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K20" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="L20" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="M20" s="4" t="s">
+      <c r="J20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O20" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="P20" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q20" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2143,26 +2473,28 @@
       <c r="C21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="2">
+      <c r="H21" s="2">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="I21" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K21" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="L21" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="M21" s="4" t="s">
+      <c r="J21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O21" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="P21" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q21" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2172,26 +2504,28 @@
       <c r="C22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="2">
+      <c r="H22" s="2">
         <v>4.2</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="I22" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K22" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="L22" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="M22" s="4" t="s">
+      <c r="J22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O22" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="P22" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q22" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2201,24 +2535,26 @@
       <c r="C23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="2">
+      <c r="H23" s="2">
         <v>4.3</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K23" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="L23" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="M23" s="4"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I23" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O23" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="P23" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2228,84 +2564,90 @@
       <c r="C24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="2">
+      <c r="H24" s="2">
         <v>4.4000000000000004</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="L24" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="M24" s="4" t="s">
+      <c r="I24" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O24" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="P24" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q24" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F25" s="2">
+      <c r="H25" s="2">
         <v>4.5</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="H25" s="1" t="s">
+      <c r="I25" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="K25" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="L25" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="M25" s="4" t="s">
+      <c r="J25" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="O25" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="P25" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q25" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F26" s="5">
+      <c r="H26" s="5">
         <v>5</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="I26" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K26" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="L26" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="M26" s="4" t="s">
+      <c r="J26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O26" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="P26" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q26" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2315,23 +2657,23 @@
       <c r="C27" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F27" s="2">
+      <c r="H27" s="2">
         <v>5.0999999999999996</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="I27" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O27" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2341,26 +2683,26 @@
       <c r="C28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="2">
+      <c r="H28" s="2">
         <v>5.2</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="I28" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="M28" s="1" t="s">
+      <c r="J28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P28" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q28" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2370,26 +2712,26 @@
       <c r="C29" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F29" s="2">
+      <c r="H29" s="2">
         <v>5.3</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2399,420 +2741,421 @@
       <c r="C30" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F30" s="2">
+      <c r="H30" s="2">
         <v>5.4</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="I30" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K30" s="2" t="s">
+      <c r="J30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="H31" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="H32" s="5">
+        <v>6</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O32" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="L30" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F31" s="2">
-        <v>5.5</v>
-      </c>
-      <c r="G31" s="3" t="s">
+      <c r="P32" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="8:17" x14ac:dyDescent="0.3">
+      <c r="H33" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O33" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="P33" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="8:17" x14ac:dyDescent="0.3">
+      <c r="H34" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="8:17" x14ac:dyDescent="0.3">
+      <c r="H35" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="8:17" x14ac:dyDescent="0.3">
+      <c r="H36" s="2">
+        <v>6.4</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="P36" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="8:17" x14ac:dyDescent="0.3">
+      <c r="H37" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O37" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="P37" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="8:17" x14ac:dyDescent="0.3">
+      <c r="H38" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="I38" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F32" s="5">
-        <v>6</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="33" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F33" s="2">
-        <v>6.1</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K33" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="L33" s="9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="34" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F34" s="2">
-        <v>6.2</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="L34" s="3" t="s">
+      <c r="J38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O38" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="P38" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="8:17" x14ac:dyDescent="0.3">
+      <c r="H39" s="5">
+        <v>7</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="P39" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="8:17" x14ac:dyDescent="0.3">
+      <c r="O40" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="P40" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="8:17" x14ac:dyDescent="0.3">
+      <c r="O41" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="8:17" x14ac:dyDescent="0.3">
+      <c r="O42" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="8:17" x14ac:dyDescent="0.3">
+      <c r="O43" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="P43" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="8:17" x14ac:dyDescent="0.3">
+      <c r="O44" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="P44" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="M34" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="35" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F35" s="2">
-        <v>6.3</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="36" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F36" s="2">
-        <v>6.4</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="L36" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="37" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F37" s="2">
-        <v>6.5</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K37" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="L37" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="38" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F38" s="2">
-        <v>6.6</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K38" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="L38" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="39" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="F39" s="5">
-        <v>7</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="L39" s="3" t="s">
+      <c r="Q44" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="45" spans="8:17" x14ac:dyDescent="0.3">
+      <c r="O45" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="46" spans="8:17" x14ac:dyDescent="0.3">
+      <c r="O46" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="47" spans="8:17" x14ac:dyDescent="0.3">
+      <c r="O47" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="48" spans="8:17" x14ac:dyDescent="0.3">
+      <c r="O48" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="P48" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="49" spans="15:17" x14ac:dyDescent="0.3">
+      <c r="O49" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="P49" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="M39" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="K40" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="L40" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="K41" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="K42" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="M42" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="43" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="K43" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="L43" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="K44" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="M44" s="1" t="s">
+      <c r="Q49" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="50" spans="15:17" x14ac:dyDescent="0.3">
+      <c r="O50" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="P50" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="51" spans="15:17" x14ac:dyDescent="0.3">
+      <c r="O51" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="P51" s="3" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="45" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="K45" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="46" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="K46" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="47" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="K47" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="48" spans="6:13" x14ac:dyDescent="0.3">
-      <c r="K48" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="L48" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="49" spans="11:13" x14ac:dyDescent="0.3">
-      <c r="K49" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="M49" s="1" t="s">
+      <c r="Q51" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="52" spans="15:17" x14ac:dyDescent="0.3">
+      <c r="O52" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="53" spans="15:17" x14ac:dyDescent="0.3">
+      <c r="O53" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="P53" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="54" spans="15:17" x14ac:dyDescent="0.3">
+      <c r="O54" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="P54" s="6" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="50" spans="11:13" x14ac:dyDescent="0.3">
-      <c r="K50" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="L50" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="51" spans="11:13" x14ac:dyDescent="0.3">
-      <c r="K51" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="L51" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="52" spans="11:13" x14ac:dyDescent="0.3">
-      <c r="K52" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="53" spans="11:13" x14ac:dyDescent="0.3">
-      <c r="K53" s="2" t="s">
+      <c r="Q54" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="55" spans="15:17" x14ac:dyDescent="0.3">
+      <c r="O55" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="P55" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="56" spans="15:17" x14ac:dyDescent="0.3">
+      <c r="O56" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="P56" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="57" spans="15:17" x14ac:dyDescent="0.3">
+      <c r="O57" s="5">
+        <v>9</v>
+      </c>
+      <c r="P57" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q57" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="L53" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="54" spans="11:13" x14ac:dyDescent="0.3">
-      <c r="K54" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="L54" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="M54" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="55" spans="11:13" x14ac:dyDescent="0.3">
-      <c r="K55" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="L55" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="M55" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="56" spans="11:13" x14ac:dyDescent="0.3">
-      <c r="K56" s="2" t="s">
+    </row>
+    <row r="58" spans="15:17" x14ac:dyDescent="0.3">
+      <c r="O58" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="P58" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="L56" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="M56" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="57" spans="11:13" x14ac:dyDescent="0.3">
-      <c r="K57" s="5">
-        <v>9</v>
-      </c>
-      <c r="L57" s="6" t="s">
+      <c r="Q58" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="59" spans="15:17" x14ac:dyDescent="0.3">
+      <c r="O59" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="P59" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="M57" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="58" spans="11:13" x14ac:dyDescent="0.3">
-      <c r="K58" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="M58" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="59" spans="11:13" x14ac:dyDescent="0.3">
-      <c r="K59" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>199</v>
+      <c r="Q59" s="1" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="3">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Design/功能及工作量.xlsx
+++ b/Design/功能及工作量.xlsx
@@ -864,28 +864,73 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>被召唤的单位完成预备后，向最近的优先攻击目标寻径移动</t>
+    <t>英雄未被召唤，且不处于重生过程中时，点击基地支付对应的圣水值召唤英雄
+英雄召唤后固定出现在基地旁边.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣水足够支付释放魔法费用时，将卡牌从手牌区拖放到战场
+在拖曳目标点进行魔法预备，预备完成后释放魔法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>达成胜利/失败条件后，判定战斗胜负。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对话事件结束后进行奖励结算。
+若有设定战胜对话事件/战败对话事件，则在结算完毕后执行对话事件。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看卡牌牌面图像，卡牌描述文字，卡牌属性，升级消耗。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗金币和若干张相同卡牌提升卡牌等级，根据等级提升卡牌属性。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从牌库中选择8张不同的卡牌作为出战卡组。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战前对话事件/战斗中对话事件/战胜对话事件/战败对话事件。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被召唤的单位完成预备后，沿最短路径向敌方基地移动，若移动方向上有可攻击对象，则向最近的优先攻击目标寻径移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣水足够支付召唤费用时，将卡牌从手牌区拖放到战场时可在拖曳目标点生成召唤单位。(若单位是步行单位，使其掉落在拖曳目标点对应区域的地面上）
+被召唤出的单位需要完成预备后才能行动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位的攻击范围内有可攻击目标时，停止移动并攻击该对象，
+根据攻击计算公式扣除对应生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在关卡选择界面点击，可查看关卡敌人配置和掉落信息
+消耗行动力可挑战对应普通关卡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>根据配置表初始化以下信息
-1.战场胜负条件(消灭敌方全部部队or摧毁敌方基地)
-2.地图配置(地图/不可通行区域/双方基地位置/楼梯位置）
-3.双方初期部队配置(敌我双方初始部队位置，根据敌我设定部队左右朝向）
-4.读取战前对话事件
-5.载入双方初始圣水值
-6.载入我方出战卡组（未设定时从</t>
+      <t>英雄死亡后需要重生，重生时间根据</t>
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>全局变量</t>
+      <t>英雄配置表hero</t>
     </r>
     <r>
       <rPr>
@@ -895,71 +940,95 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>中读取默认卡组/设定出战卡组时，为设定的出战卡组）
+      <t>决定。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>战前对话结束后开始圣水增长
+根据</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全局变量配置表cfg_global</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，设定基本圣水增长值（1点/秒）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>根据</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关卡配置表battle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>初始化以下信息
+1.战场胜负条件(消灭敌方全部部队or摧毁敌方基地or消灭敌方全部制定id部队)
+2.地图配置(地图/不可通行区域/双方基地位置/楼梯位置）
+3.双方初期部队配置(敌我双方初始部队位置，根据敌我设定部队左右朝向）
+4.读取战前对话事件
+5.载入双方初始圣水值,圣水值上限。
+6.载入我方出战卡组（未设定时从</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全局变量配置表cfg_global</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中读取默认卡组/有设定出战卡组时，为设定的出战卡组）
 7.载入敌方出战卡组
 8.从我方出战牌库中随机出4张作为初始手牌
 9.从敌方牌库中随机出4张作为初始手牌
 10.载入我方出战英雄
 11.载入敌方出战英雄</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英雄未被召唤，且不处于重生过程中时，点击基地支付对应的圣水值召唤英雄
-英雄召唤后固定出现在基地旁边.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位的攻击范围内有可攻击目标时，攻击该对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英雄死亡后需要重生，重生时间暂定为30秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣水足够支付召唤费用时，将卡牌从手牌区拖放到战场时可在拖曳目标点生成召唤单位。(若单位是步行单位，则需要做模糊匹配，使其出现在拖曳目标点对应区域的地面上）
-被召唤出的单位需要完成预备后才能行动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣水足够支付释放魔法费用时，将卡牌从手牌区拖放到战场
-在拖曳目标点进行魔法预备，预备完成后释放魔法。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战前对话结束后开始圣水增长
-根据全局变量，设定基本圣水增长值（1点/秒）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>达成胜利/失败条件后，判定战斗胜负。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对话事件结束后进行奖励结算。
-若有设定战胜对话事件/战败对话事件，则在结算完毕后执行对话事件。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战前对话事件/战胜对话事件/战败对话事件。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在关卡选择界面点击，可查看关卡敌人配置和掉落信息
-消耗行动力可挑战对应普通关卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看卡牌牌面图像，卡牌描述文字，卡牌属性，升级消耗。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗金币和若干张相同卡牌提升卡牌等级，根据等级提升卡牌属性。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从牌库中选择8张不同的卡牌作为出战卡组。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1011,6 +1080,7 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
@@ -1083,17 +1153,12 @@
   <dxfs count="24">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
       </font>
@@ -1128,69 +1193,6 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
       </font>
@@ -1272,6 +1274,40 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1341,6 +1377,40 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
         <name val="微软雅黑"/>
         <scheme val="none"/>
       </font>
@@ -1425,39 +1495,39 @@
     <tableColumn id="1" name="编号" dataDxfId="21"/>
     <tableColumn id="2" name="策划工作内容" dataDxfId="20"/>
     <tableColumn id="3" name="类型" dataDxfId="19"/>
-    <tableColumn id="6" name="描述" dataDxfId="2"/>
-    <tableColumn id="5" name="优先级" dataDxfId="3"/>
-    <tableColumn id="4" name="责任人" dataDxfId="18"/>
+    <tableColumn id="6" name="描述" dataDxfId="18"/>
+    <tableColumn id="5" name="优先级" dataDxfId="17"/>
+    <tableColumn id="4" name="责任人" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="H1:M39" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="H1:M39" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="H1:M39"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="编号" dataDxfId="15"/>
-    <tableColumn id="2" name="程序工作内容" dataDxfId="14"/>
-    <tableColumn id="3" name="类型" dataDxfId="13"/>
-    <tableColumn id="5" name="描述" dataDxfId="5"/>
-    <tableColumn id="6" name="优先级" dataDxfId="4"/>
-    <tableColumn id="4" name="责任人" dataDxfId="12"/>
+    <tableColumn id="1" name="编号" dataDxfId="13"/>
+    <tableColumn id="2" name="程序工作内容" dataDxfId="12"/>
+    <tableColumn id="3" name="类型" dataDxfId="11"/>
+    <tableColumn id="5" name="描述" dataDxfId="10"/>
+    <tableColumn id="6" name="优先级" dataDxfId="9"/>
+    <tableColumn id="4" name="责任人" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="O1:T59" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="O1:T59" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="O1:T59"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="编号" dataDxfId="9"/>
-    <tableColumn id="2" name="美术工作内容" dataDxfId="8"/>
-    <tableColumn id="3" name="类型" dataDxfId="7"/>
-    <tableColumn id="6" name="描述" dataDxfId="0"/>
+    <tableColumn id="1" name="编号" dataDxfId="5"/>
+    <tableColumn id="2" name="美术工作内容" dataDxfId="4"/>
+    <tableColumn id="3" name="类型" dataDxfId="3"/>
+    <tableColumn id="6" name="描述" dataDxfId="2"/>
     <tableColumn id="5" name="优先级" dataDxfId="1"/>
-    <tableColumn id="4" name="责任人" dataDxfId="6"/>
+    <tableColumn id="4" name="责任人" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1752,8 +1822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1870,7 +1940,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="231" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1890,7 +1960,7 @@
         <v>65</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="O3" s="12">
         <v>1.1000000000000001</v>
@@ -1924,7 +1994,7 @@
         <v>65</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="O4" s="12">
         <v>1.2</v>
@@ -1938,7 +2008,7 @@
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
     </row>
-    <row r="5" spans="1:20" ht="66" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1958,7 +2028,7 @@
         <v>65</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="O5" s="12">
         <v>1.3</v>
@@ -1970,7 +2040,7 @@
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1989,8 +2059,8 @@
       <c r="J6" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>212</v>
+      <c r="K6" s="14" t="s">
+        <v>220</v>
       </c>
       <c r="O6" s="12" t="s">
         <v>150</v>
@@ -2004,7 +2074,7 @@
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2023,8 +2093,8 @@
       <c r="J7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>215</v>
+      <c r="K7" s="14" t="s">
+        <v>222</v>
       </c>
       <c r="O7" s="12" t="s">
         <v>151</v>
@@ -2058,7 +2128,7 @@
         <v>65</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O8" s="12">
         <v>1.4</v>
@@ -2090,7 +2160,7 @@
         <v>65</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="O9" s="12" t="s">
         <v>152</v>
@@ -2124,7 +2194,7 @@
         <v>65</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="O10" s="12" t="s">
         <v>153</v>
@@ -2158,7 +2228,7 @@
         <v>65</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="O11" s="12" t="s">
         <v>154</v>
@@ -2192,7 +2262,7 @@
         <v>65</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="O12" s="12" t="s">
         <v>155</v>
@@ -2224,7 +2294,7 @@
         <v>65</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="O13" s="12" t="s">
         <v>156</v>
@@ -2352,7 +2422,7 @@
         <v>65</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="O17" s="12" t="s">
         <v>160</v>
@@ -2386,7 +2456,7 @@
         <v>65</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="O18" s="12" t="s">
         <v>161</v>
@@ -2420,7 +2490,7 @@
         <v>65</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="O19" s="12" t="s">
         <v>162</v>
